--- a/data/apprentice_PROD.xlsx
+++ b/data/apprentice_PROD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD354E24-E24D-4F6D-A3FE-5BAFAE457694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BCEF08-123B-45D7-8244-E6DF374FF22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="172">
   <si>
     <t>שם</t>
   </si>
@@ -943,54 +943,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN33" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2:AQ43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" customWidth="1"/>
     <col min="8" max="9" width="15.25" customWidth="1"/>
-    <col min="10" max="11" width="18.625" customWidth="1"/>
+    <col min="10" max="11" width="18.58203125" customWidth="1"/>
     <col min="12" max="12" width="12.25" customWidth="1"/>
     <col min="13" max="13" width="15.75" customWidth="1"/>
-    <col min="14" max="14" width="17.625" customWidth="1"/>
-    <col min="15" max="15" width="14.125" customWidth="1"/>
-    <col min="16" max="16" width="15.875" customWidth="1"/>
+    <col min="14" max="14" width="17.58203125" customWidth="1"/>
+    <col min="15" max="15" width="14.08203125" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
     <col min="17" max="17" width="19.75" customWidth="1"/>
-    <col min="18" max="18" width="18.875" customWidth="1"/>
-    <col min="19" max="19" width="16.875" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="20.125" customWidth="1"/>
+    <col min="21" max="21" width="20.08203125" customWidth="1"/>
     <col min="22" max="25" width="15.75" customWidth="1"/>
-    <col min="26" max="26" width="23.875" customWidth="1"/>
-    <col min="27" max="28" width="19.375" customWidth="1"/>
-    <col min="29" max="29" width="21.375" customWidth="1"/>
-    <col min="30" max="30" width="11.375" customWidth="1"/>
+    <col min="26" max="26" width="23.83203125" customWidth="1"/>
+    <col min="27" max="28" width="19.33203125" customWidth="1"/>
+    <col min="29" max="29" width="21.33203125" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" customWidth="1"/>
     <col min="31" max="31" width="9.75" customWidth="1"/>
     <col min="32" max="32" width="14.75" customWidth="1"/>
     <col min="33" max="33" width="9.75" customWidth="1"/>
     <col min="35" max="35" width="14.25" customWidth="1"/>
-    <col min="36" max="37" width="22.125" customWidth="1"/>
-    <col min="38" max="38" width="14.875" customWidth="1"/>
-    <col min="39" max="39" width="14.625" customWidth="1"/>
-    <col min="40" max="42" width="24.625" customWidth="1"/>
-    <col min="43" max="43" width="18.875" customWidth="1"/>
+    <col min="36" max="37" width="22.08203125" customWidth="1"/>
+    <col min="38" max="38" width="14.83203125" customWidth="1"/>
+    <col min="39" max="39" width="14.58203125" customWidth="1"/>
+    <col min="40" max="42" width="24.58203125" customWidth="1"/>
+    <col min="43" max="43" width="18.83203125" customWidth="1"/>
     <col min="44" max="44" width="19" customWidth="1"/>
-    <col min="45" max="45" width="18.875" customWidth="1"/>
-    <col min="46" max="46" width="10.625" customWidth="1"/>
+    <col min="45" max="45" width="18.83203125" customWidth="1"/>
+    <col min="46" max="46" width="10.58203125" customWidth="1"/>
     <col min="52" max="52" width="18.75" customWidth="1"/>
-    <col min="53" max="53" width="18.875" customWidth="1"/>
-    <col min="54" max="55" width="8.625" customWidth="1"/>
+    <col min="53" max="53" width="18.83203125" customWidth="1"/>
+    <col min="54" max="55" width="8.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.75">
+    <row r="1" spans="1:52" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="15.75">
+    <row r="2" spans="1:52" ht="15.5">
       <c r="A2" s="21" t="s">
         <v>52</v>
       </c>
@@ -1316,7 +1316,9 @@
       <c r="C3" s="5">
         <v>544816496</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
@@ -1329,7 +1331,9 @@
       <c r="H3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>117474</v>
+      </c>
       <c r="J3" s="19" t="s">
         <v>165</v>
       </c>
@@ -1387,7 +1391,9 @@
       <c r="AB3" s="7">
         <v>117474</v>
       </c>
-      <c r="AC3" s="2"/>
+      <c r="AC3" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="AD3" s="2" t="s">
         <v>70</v>
       </c>
@@ -1458,7 +1464,7 @@
         <v>544816491</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="15.75">
+    <row r="4" spans="1:52" ht="15.5">
       <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>544816491</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="15.75">
+    <row r="5" spans="1:52" ht="15.5">
       <c r="A5" s="22" t="s">
         <v>97</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>544816491</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="15.75">
+    <row r="6" spans="1:52" ht="15.5">
       <c r="A6" s="21" t="s">
         <v>104</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>544816491</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="15.75">
+    <row r="7" spans="1:52" ht="15.5">
       <c r="A7" s="22" t="s">
         <v>113</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>544816491</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="15.75">
+    <row r="8" spans="1:52" ht="15.5">
       <c r="A8" s="21" t="s">
         <v>118</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>544816491</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="15.75">
+    <row r="9" spans="1:52" ht="15.5">
       <c r="A9" s="22" t="s">
         <v>124</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>544816491</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="15.75">
+    <row r="10" spans="1:52" ht="15.5">
       <c r="A10" s="22" t="s">
         <v>133</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>544816491</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="15.75">
+    <row r="11" spans="1:52" ht="15.5">
       <c r="A11" s="22" t="s">
         <v>146</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>544816491</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="15.75">
+    <row r="12" spans="1:52" ht="15.5">
       <c r="A12" s="22" t="s">
         <v>154</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>544816491</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="15.75">
+    <row r="13" spans="1:52" ht="15.5">
       <c r="A13" s="21" t="s">
         <v>52</v>
       </c>
@@ -3038,7 +3044,7 @@
         <v>549247616</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="15.75">
+    <row r="14" spans="1:52" ht="15.5">
       <c r="A14" s="21" t="s">
         <v>168</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="15.75">
+    <row r="15" spans="1:52" ht="15.5">
       <c r="A15" s="21" t="s">
         <v>91</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="15.75">
+    <row r="16" spans="1:52" ht="15.5">
       <c r="A16" s="22" t="s">
         <v>97</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="15.75">
+    <row r="17" spans="1:52" ht="15.5">
       <c r="A17" s="21" t="s">
         <v>104</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="15.75">
+    <row r="18" spans="1:52" ht="15.5">
       <c r="A18" s="22" t="s">
         <v>113</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="15.75">
+    <row r="19" spans="1:52" ht="15.5">
       <c r="A19" s="21" t="s">
         <v>118</v>
       </c>
@@ -3986,7 +3992,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="15.75">
+    <row r="20" spans="1:52" ht="15.5">
       <c r="A20" s="22" t="s">
         <v>124</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="15.75">
+    <row r="21" spans="1:52" ht="15.5">
       <c r="A21" s="22" t="s">
         <v>133</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="15.75">
+    <row r="22" spans="1:52" ht="15.5">
       <c r="A22" s="22" t="s">
         <v>146</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="15.75">
+    <row r="23" spans="1:52" ht="15.5">
       <c r="A23" s="22" t="s">
         <v>154</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="15.75">
+    <row r="24" spans="1:52" ht="15.5">
       <c r="A24" s="21" t="s">
         <v>52</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="15.75">
+    <row r="25" spans="1:52" ht="15.5">
       <c r="A25" s="21" t="s">
         <v>91</v>
       </c>
@@ -4934,7 +4940,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="15.75">
+    <row r="26" spans="1:52" ht="15.5">
       <c r="A26" s="22" t="s">
         <v>97</v>
       </c>
@@ -5092,7 +5098,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="15.75">
+    <row r="27" spans="1:52" ht="15.5">
       <c r="A27" s="21" t="s">
         <v>104</v>
       </c>
@@ -5250,7 +5256,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="15.75">
+    <row r="28" spans="1:52" ht="15.5">
       <c r="A28" s="22" t="s">
         <v>113</v>
       </c>
@@ -5408,7 +5414,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="15.75">
+    <row r="29" spans="1:52" ht="15.5">
       <c r="A29" s="21" t="s">
         <v>118</v>
       </c>
@@ -5566,7 +5572,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="15.75">
+    <row r="30" spans="1:52" ht="15.5">
       <c r="A30" s="22" t="s">
         <v>124</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="15.75">
+    <row r="31" spans="1:52" ht="15.5">
       <c r="A31" s="22" t="s">
         <v>133</v>
       </c>
@@ -5882,7 +5888,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="15.75">
+    <row r="32" spans="1:52" ht="15.5">
       <c r="A32" s="22" t="s">
         <v>146</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="33" spans="1:53" ht="15.75">
+    <row r="33" spans="1:53" ht="15.5">
       <c r="A33" s="22" t="s">
         <v>154</v>
       </c>
@@ -6198,7 +6204,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="34" spans="1:53" ht="15.75">
+    <row r="34" spans="1:53" ht="15.5">
       <c r="A34" s="21" t="s">
         <v>52</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="35" spans="1:53" ht="15.75">
+    <row r="35" spans="1:53" ht="15.5">
       <c r="A35" s="21" t="s">
         <v>91</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="36" spans="1:53" ht="15.75">
+    <row r="36" spans="1:53" ht="15.5">
       <c r="A36" s="22" t="s">
         <v>97</v>
       </c>
@@ -6672,7 +6678,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="37" spans="1:53" ht="15.75">
+    <row r="37" spans="1:53" ht="15.5">
       <c r="A37" s="21" t="s">
         <v>104</v>
       </c>
@@ -6830,7 +6836,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="38" spans="1:53" ht="15.75">
+    <row r="38" spans="1:53" ht="15.5">
       <c r="A38" s="22" t="s">
         <v>113</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="39" spans="1:53" ht="15.75">
+    <row r="39" spans="1:53" ht="15.5">
       <c r="A39" s="21" t="s">
         <v>118</v>
       </c>
@@ -7146,7 +7152,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="40" spans="1:53" ht="15.75">
+    <row r="40" spans="1:53" ht="15.5">
       <c r="A40" s="22" t="s">
         <v>124</v>
       </c>
@@ -7304,7 +7310,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="41" spans="1:53" ht="15.75">
+    <row r="41" spans="1:53" ht="15.5">
       <c r="A41" s="22" t="s">
         <v>133</v>
       </c>
@@ -7462,7 +7468,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="42" spans="1:53" ht="15.75">
+    <row r="42" spans="1:53" ht="15.5">
       <c r="A42" s="22" t="s">
         <v>146</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="43" spans="1:53" ht="15.75">
+    <row r="43" spans="1:53" ht="15.5">
       <c r="A43" s="22" t="s">
         <v>154</v>
       </c>
@@ -7778,206 +7784,206 @@
         <v>523301800</v>
       </c>
     </row>
-    <row r="44" spans="1:53" ht="15.75">
+    <row r="44" spans="1:53" ht="15.5">
       <c r="AO44" s="16"/>
       <c r="BA44" s="14"/>
     </row>
-    <row r="45" spans="1:53" ht="15.75">
+    <row r="45" spans="1:53" ht="15.5">
       <c r="AO45" s="15"/>
     </row>
-    <row r="46" spans="1:53" ht="15.75">
+    <row r="46" spans="1:53" ht="15.5">
       <c r="AO46" s="16"/>
     </row>
-    <row r="47" spans="1:53" ht="15.75">
+    <row r="47" spans="1:53" ht="15.5">
       <c r="AO47" s="15"/>
     </row>
-    <row r="48" spans="1:53" ht="15.75">
+    <row r="48" spans="1:53" ht="15.5">
       <c r="AO48" s="16"/>
     </row>
-    <row r="49" spans="41:41" ht="15.75">
+    <row r="49" spans="41:41" ht="15.5">
       <c r="AO49" s="15"/>
     </row>
-    <row r="50" spans="41:41" ht="15.75">
+    <row r="50" spans="41:41" ht="15.5">
       <c r="AO50" s="16"/>
     </row>
-    <row r="51" spans="41:41" ht="15.75">
+    <row r="51" spans="41:41" ht="15.5">
       <c r="AO51" s="15"/>
     </row>
-    <row r="52" spans="41:41" ht="15.75">
+    <row r="52" spans="41:41" ht="15.5">
       <c r="AO52" s="16"/>
     </row>
-    <row r="53" spans="41:41" ht="15.75">
+    <row r="53" spans="41:41" ht="15.5">
       <c r="AO53" s="15"/>
     </row>
-    <row r="54" spans="41:41" ht="15.75">
+    <row r="54" spans="41:41" ht="15.5">
       <c r="AO54" s="16"/>
     </row>
-    <row r="55" spans="41:41" ht="15.75">
+    <row r="55" spans="41:41" ht="15.5">
       <c r="AO55" s="15"/>
     </row>
-    <row r="56" spans="41:41" ht="15.75">
+    <row r="56" spans="41:41" ht="15.5">
       <c r="AO56" s="16"/>
     </row>
-    <row r="57" spans="41:41" ht="15.75">
+    <row r="57" spans="41:41" ht="15.5">
       <c r="AO57" s="15"/>
     </row>
-    <row r="58" spans="41:41" ht="15.75">
+    <row r="58" spans="41:41" ht="15.5">
       <c r="AO58" s="16"/>
     </row>
-    <row r="59" spans="41:41" ht="15.75">
+    <row r="59" spans="41:41" ht="15.5">
       <c r="AO59" s="15"/>
     </row>
-    <row r="60" spans="41:41" ht="15.75">
+    <row r="60" spans="41:41" ht="15.5">
       <c r="AO60" s="16"/>
     </row>
-    <row r="61" spans="41:41" ht="15.75">
+    <row r="61" spans="41:41" ht="15.5">
       <c r="AO61" s="15"/>
     </row>
-    <row r="62" spans="41:41" ht="15.75">
+    <row r="62" spans="41:41" ht="15.5">
       <c r="AO62" s="16"/>
     </row>
-    <row r="63" spans="41:41" ht="15.75">
+    <row r="63" spans="41:41" ht="15.5">
       <c r="AO63" s="15"/>
     </row>
-    <row r="64" spans="41:41" ht="15.75">
+    <row r="64" spans="41:41" ht="15.5">
       <c r="AO64" s="16"/>
     </row>
-    <row r="65" spans="41:41" ht="15.75">
+    <row r="65" spans="41:41" ht="15.5">
       <c r="AO65" s="15"/>
     </row>
-    <row r="66" spans="41:41" ht="15.75">
+    <row r="66" spans="41:41" ht="15.5">
       <c r="AO66" s="16"/>
     </row>
-    <row r="67" spans="41:41" ht="15.75">
+    <row r="67" spans="41:41" ht="15.5">
       <c r="AO67" s="15"/>
     </row>
-    <row r="68" spans="41:41" ht="15.75">
+    <row r="68" spans="41:41" ht="15.5">
       <c r="AO68" s="16"/>
     </row>
-    <row r="69" spans="41:41" ht="15.75">
+    <row r="69" spans="41:41" ht="15.5">
       <c r="AO69" s="15"/>
     </row>
-    <row r="70" spans="41:41" ht="15.75">
+    <row r="70" spans="41:41" ht="15.5">
       <c r="AO70" s="16"/>
     </row>
-    <row r="71" spans="41:41" ht="15.75">
+    <row r="71" spans="41:41" ht="15.5">
       <c r="AO71" s="15"/>
     </row>
-    <row r="72" spans="41:41" ht="15.75">
+    <row r="72" spans="41:41" ht="15.5">
       <c r="AO72" s="16"/>
     </row>
-    <row r="73" spans="41:41" ht="15.75">
+    <row r="73" spans="41:41" ht="15.5">
       <c r="AO73" s="15"/>
     </row>
-    <row r="74" spans="41:41" ht="15.75">
+    <row r="74" spans="41:41" ht="15.5">
       <c r="AO74" s="16"/>
     </row>
-    <row r="75" spans="41:41" ht="15.75">
+    <row r="75" spans="41:41" ht="15.5">
       <c r="AO75" s="15"/>
     </row>
-    <row r="76" spans="41:41" ht="15.75">
+    <row r="76" spans="41:41" ht="15.5">
       <c r="AO76" s="16"/>
     </row>
-    <row r="77" spans="41:41" ht="15.75">
+    <row r="77" spans="41:41" ht="15.5">
       <c r="AO77" s="15"/>
     </row>
-    <row r="78" spans="41:41" ht="15.75">
+    <row r="78" spans="41:41" ht="15.5">
       <c r="AO78" s="16"/>
     </row>
-    <row r="79" spans="41:41" ht="15.75">
+    <row r="79" spans="41:41" ht="15.5">
       <c r="AO79" s="15"/>
     </row>
-    <row r="80" spans="41:41" ht="15.75">
+    <row r="80" spans="41:41" ht="15.5">
       <c r="AO80" s="16"/>
     </row>
-    <row r="81" spans="41:41" ht="15.75">
+    <row r="81" spans="41:41" ht="15.5">
       <c r="AO81" s="15"/>
     </row>
-    <row r="82" spans="41:41" ht="15.75">
+    <row r="82" spans="41:41" ht="15.5">
       <c r="AO82" s="16"/>
     </row>
-    <row r="83" spans="41:41" ht="15.75">
+    <row r="83" spans="41:41" ht="15.5">
       <c r="AO83" s="15"/>
     </row>
-    <row r="84" spans="41:41" ht="15.75">
+    <row r="84" spans="41:41" ht="15.5">
       <c r="AO84" s="16"/>
     </row>
-    <row r="85" spans="41:41" ht="15.75">
+    <row r="85" spans="41:41" ht="15.5">
       <c r="AO85" s="15"/>
     </row>
-    <row r="86" spans="41:41" ht="15.75">
+    <row r="86" spans="41:41" ht="15.5">
       <c r="AO86" s="16"/>
     </row>
-    <row r="87" spans="41:41" ht="15.75">
+    <row r="87" spans="41:41" ht="15.5">
       <c r="AO87" s="15"/>
     </row>
-    <row r="88" spans="41:41" ht="15.75">
+    <row r="88" spans="41:41" ht="15.5">
       <c r="AO88" s="16"/>
     </row>
-    <row r="89" spans="41:41" ht="15.75">
+    <row r="89" spans="41:41" ht="15.5">
       <c r="AO89" s="15"/>
     </row>
-    <row r="90" spans="41:41" ht="15.75">
+    <row r="90" spans="41:41" ht="15.5">
       <c r="AO90" s="16"/>
     </row>
-    <row r="91" spans="41:41" ht="15.75">
+    <row r="91" spans="41:41" ht="15.5">
       <c r="AO91" s="15"/>
     </row>
-    <row r="92" spans="41:41" ht="15.75">
+    <row r="92" spans="41:41" ht="15.5">
       <c r="AO92" s="16"/>
     </row>
-    <row r="93" spans="41:41" ht="15.75">
+    <row r="93" spans="41:41" ht="15.5">
       <c r="AO93" s="15"/>
     </row>
-    <row r="94" spans="41:41" ht="15.75">
+    <row r="94" spans="41:41" ht="15.5">
       <c r="AO94" s="16"/>
     </row>
-    <row r="95" spans="41:41" ht="15.75">
+    <row r="95" spans="41:41" ht="15.5">
       <c r="AO95" s="15"/>
     </row>
-    <row r="96" spans="41:41" ht="15.75">
+    <row r="96" spans="41:41" ht="15.5">
       <c r="AO96" s="16"/>
     </row>
-    <row r="97" spans="41:41" ht="15.75">
+    <row r="97" spans="41:41" ht="15.5">
       <c r="AO97" s="15"/>
     </row>
-    <row r="98" spans="41:41" ht="15.75">
+    <row r="98" spans="41:41" ht="15.5">
       <c r="AO98" s="16"/>
     </row>
-    <row r="99" spans="41:41" ht="15.75">
+    <row r="99" spans="41:41" ht="15.5">
       <c r="AO99" s="15"/>
     </row>
-    <row r="100" spans="41:41" ht="15.75">
+    <row r="100" spans="41:41" ht="15.5">
       <c r="AO100" s="16"/>
     </row>
-    <row r="101" spans="41:41" ht="15.75">
+    <row r="101" spans="41:41" ht="15.5">
       <c r="AO101" s="15"/>
     </row>
-    <row r="102" spans="41:41" ht="15.75">
+    <row r="102" spans="41:41" ht="15.5">
       <c r="AO102" s="16"/>
     </row>
-    <row r="103" spans="41:41" ht="15.75">
+    <row r="103" spans="41:41" ht="15.5">
       <c r="AO103" s="15"/>
     </row>
-    <row r="104" spans="41:41" ht="15.75">
+    <row r="104" spans="41:41" ht="15.5">
       <c r="AO104" s="16"/>
     </row>
-    <row r="105" spans="41:41" ht="15.75">
+    <row r="105" spans="41:41" ht="15.5">
       <c r="AO105" s="15"/>
     </row>
-    <row r="106" spans="41:41" ht="15.75">
+    <row r="106" spans="41:41" ht="15.5">
       <c r="AO106" s="16"/>
     </row>
-    <row r="107" spans="41:41" ht="15.75">
+    <row r="107" spans="41:41" ht="15.5">
       <c r="AO107" s="15"/>
     </row>
-    <row r="108" spans="41:41" ht="15.75">
+    <row r="108" spans="41:41" ht="15.5">
       <c r="AO108" s="16"/>
     </row>
-    <row r="109" spans="41:41" ht="15.75">
+    <row r="109" spans="41:41" ht="15.5">
       <c r="AO109" s="15"/>
     </row>
-    <row r="110" spans="41:41" ht="15.75">
+    <row r="110" spans="41:41" ht="15.5">
       <c r="AO110" s="16"/>
     </row>
   </sheetData>

--- a/data/apprentice_PROD.xlsx
+++ b/data/apprentice_PROD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BCEF08-123B-45D7-8244-E6DF374FF22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD7CDEE-D677-4354-8AD3-E9F55EE54802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="170">
   <si>
     <t>שם</t>
   </si>
@@ -246,9 +246,6 @@
     <t>הרב פנחס</t>
   </si>
   <si>
-    <t>משלם</t>
-  </si>
-  <si>
     <t>אדוק</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
   </si>
   <si>
     <t>כה</t>
-  </si>
-  <si>
-    <t>לא משלם</t>
   </si>
   <si>
     <t>קריה</t>
@@ -943,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -1177,7 +1171,7 @@
         <v>117474</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>59</v>
@@ -1234,7 +1228,7 @@
         <v>117474</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>70</v>
@@ -1248,59 +1242,59 @@
       <c r="AG2" s="5">
         <v>544816495</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL2" s="5">
         <v>544816495</v>
       </c>
       <c r="AM2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AQ2" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="AS2" s="9">
         <v>888</v>
       </c>
       <c r="AT2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AV2" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AV2" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AW2" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="AY2" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ2" s="12">
         <v>544816491</v>
@@ -1308,16 +1302,16 @@
     </row>
     <row r="3" spans="1:52" ht="24" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="5">
         <v>544816496</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>55</v>
@@ -1326,16 +1320,16 @@
         <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="I3" s="7">
         <v>117474</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>59</v>
@@ -1344,7 +1338,7 @@
         <v>60</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>62</v>
@@ -1374,7 +1368,7 @@
         <v>69</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>68</v>
@@ -1383,16 +1377,16 @@
         <v>65</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="AB3" s="7">
         <v>117474</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>70</v>
@@ -1406,47 +1400,47 @@
       <c r="AG3" s="5">
         <v>544816496</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>72</v>
+      <c r="AH3" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL3" s="5">
         <v>544816496</v>
       </c>
       <c r="AM3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN3" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="AO3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ3" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ3" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="AS3" s="9">
         <v>999</v>
       </c>
       <c r="AT3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU3" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="AU3" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="AV3" s="7">
         <v>117475</v>
@@ -1455,10 +1449,10 @@
         <v>117475</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY3" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ3" s="11">
         <v>544816491</v>
@@ -1466,7 +1460,7 @@
     </row>
     <row r="4" spans="1:52" ht="15.5">
       <c r="A4" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>53</v>
@@ -1484,16 +1478,16 @@
         <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="I4" s="7">
         <v>117474</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>59</v>
@@ -1532,7 +1526,7 @@
         <v>69</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>68</v>
@@ -1541,16 +1535,16 @@
         <v>65</v>
       </c>
       <c r="Z4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="AB4" s="7">
         <v>117474</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>70</v>
@@ -1564,47 +1558,47 @@
       <c r="AG4" s="5">
         <v>544816497</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>72</v>
+      <c r="AH4" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL4" s="5">
         <v>544816497</v>
       </c>
       <c r="AM4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN4" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="AO4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ4" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS4" s="9">
         <v>999</v>
       </c>
       <c r="AT4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU4" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="AU4" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="AV4" s="7">
         <v>117476</v>
@@ -1613,10 +1607,10 @@
         <v>117476</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY4" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ4" s="12">
         <v>544816491</v>
@@ -1624,10 +1618,10 @@
     </row>
     <row r="5" spans="1:52" ht="15.5">
       <c r="A5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C5" s="5">
         <v>544816498</v>
@@ -1642,22 +1636,22 @@
         <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="I5" s="7">
         <v>117474</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>61</v>
@@ -1690,7 +1684,7 @@
         <v>69</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>68</v>
@@ -1699,16 +1693,16 @@
         <v>65</v>
       </c>
       <c r="Z5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="AB5" s="7">
         <v>117474</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD5" s="2" t="s">
         <v>70</v>
@@ -1722,47 +1716,47 @@
       <c r="AG5" s="5">
         <v>544816498</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL5" s="5">
         <v>544816498</v>
       </c>
       <c r="AM5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN5" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="AO5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ5" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS5" s="9">
         <v>777</v>
       </c>
       <c r="AT5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU5" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="AU5" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="AV5" s="7">
         <v>117477</v>
@@ -1771,10 +1765,10 @@
         <v>117477</v>
       </c>
       <c r="AX5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AY5" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ5" s="12">
         <v>544816491</v>
@@ -1782,7 +1776,7 @@
     </row>
     <row r="6" spans="1:52" ht="15.5">
       <c r="A6" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
@@ -1800,19 +1794,19 @@
         <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="7">
+        <v>117474</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="7">
-        <v>117474</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>60</v>
@@ -1848,7 +1842,7 @@
         <v>69</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>68</v>
@@ -1857,16 +1851,16 @@
         <v>65</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB6" s="7">
         <v>117474</v>
       </c>
       <c r="AC6" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>70</v>
@@ -1880,47 +1874,47 @@
       <c r="AG6" s="5">
         <v>544816499</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>72</v>
+      <c r="AH6" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL6" s="5">
         <v>544816499</v>
       </c>
       <c r="AM6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN6" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="AO6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ6" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AP6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ6" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AS6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AT6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AT6" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="AU6" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV6" s="7">
         <v>117478</v>
@@ -1929,10 +1923,10 @@
         <v>117478</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY6" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ6" s="12">
         <v>544816491</v>
@@ -1940,10 +1934,10 @@
     </row>
     <row r="7" spans="1:52" ht="15.5">
       <c r="A7" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5">
         <v>544816500</v>
@@ -1958,25 +1952,25 @@
         <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="I7" s="7">
         <v>117474</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>60</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>62</v>
@@ -2006,7 +2000,7 @@
         <v>69</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>68</v>
@@ -2015,16 +2009,16 @@
         <v>65</v>
       </c>
       <c r="Z7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="AB7" s="7">
         <v>117474</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>70</v>
@@ -2038,47 +2032,47 @@
       <c r="AG7" s="5">
         <v>544816500</v>
       </c>
-      <c r="AH7" s="2" t="s">
-        <v>116</v>
+      <c r="AH7" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK7" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL7" s="5">
         <v>544816500</v>
       </c>
       <c r="AM7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN7" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="AO7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ7" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AT7" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="AU7" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV7" s="7">
         <v>117479</v>
@@ -2087,10 +2081,10 @@
         <v>117479</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AY7" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ7" s="12">
         <v>544816491</v>
@@ -2098,10 +2092,10 @@
     </row>
     <row r="8" spans="1:52" ht="15.5">
       <c r="A8" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="5">
         <v>544816501</v>
@@ -2116,22 +2110,22 @@
         <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="7">
+        <v>117474</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="7">
-        <v>117474</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>58</v>
@@ -2164,7 +2158,7 @@
         <v>69</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>68</v>
@@ -2173,16 +2167,16 @@
         <v>65</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AB8" s="7">
         <v>117474</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD8" s="2" t="s">
         <v>70</v>
@@ -2196,47 +2190,47 @@
       <c r="AG8" s="5">
         <v>544816501</v>
       </c>
-      <c r="AH8" s="2" t="s">
-        <v>116</v>
+      <c r="AH8" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AJ8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK8" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL8" s="5">
         <v>544816501</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ8" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS8" s="9">
         <v>666</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AU8" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV8" s="7">
         <v>117480</v>
@@ -2245,10 +2239,10 @@
         <v>117480</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AY8" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ8" s="12">
         <v>544816491</v>
@@ -2256,10 +2250,10 @@
     </row>
     <row r="9" spans="1:52" ht="15.5">
       <c r="A9" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5">
         <v>544816502</v>
@@ -2274,19 +2268,19 @@
         <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I9" s="7">
         <v>117474</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>60</v>
@@ -2331,10 +2325,10 @@
         <v>65</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB9" s="7">
         <v>117474</v>
@@ -2354,47 +2348,47 @@
       <c r="AG9" s="5">
         <v>544816502</v>
       </c>
-      <c r="AH9" s="2" t="s">
-        <v>116</v>
+      <c r="AH9" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK9" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL9" s="5">
         <v>544816502</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AO9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ9" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS9" s="9">
         <v>666</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AV9" s="7">
         <v>117481</v>
@@ -2403,10 +2397,10 @@
         <v>117481</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AY9" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ9" s="12">
         <v>544816491</v>
@@ -2414,7 +2408,7 @@
     </row>
     <row r="10" spans="1:52" ht="15.5">
       <c r="A10" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>53</v>
@@ -2423,28 +2417,28 @@
         <v>549247617</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="I10" s="7">
         <v>117474</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>60</v>
@@ -2456,52 +2450,52 @@
         <v>62</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>66</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>69</v>
       </c>
       <c r="W10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AC10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="AE10" s="12">
         <v>549247617</v>
@@ -2512,47 +2506,47 @@
       <c r="AG10" s="12">
         <v>549247617</v>
       </c>
-      <c r="AH10" s="2" t="s">
-        <v>116</v>
+      <c r="AH10" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK10" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL10" s="12">
         <v>549247617</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AO10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ10" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS10" s="9">
         <v>666</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AV10" s="7">
         <v>117482</v>
@@ -2561,10 +2555,10 @@
         <v>117482</v>
       </c>
       <c r="AX10" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AY10" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ10" s="12">
         <v>544816491</v>
@@ -2572,94 +2566,94 @@
     </row>
     <row r="11" spans="1:52" ht="15.5">
       <c r="A11" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="12">
         <v>549247618</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I11" s="7">
         <v>117474</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="O11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>66</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>69</v>
       </c>
       <c r="W11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="AE11" s="12">
         <v>549247618</v>
@@ -2670,47 +2664,47 @@
       <c r="AG11" s="12">
         <v>549247618</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AH11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK11" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL11" s="12">
         <v>549247618</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AO11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ11" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS11" s="9">
         <v>666</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU11" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AV11" s="7">
         <v>117483</v>
@@ -2719,10 +2713,10 @@
         <v>117483</v>
       </c>
       <c r="AX11" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AY11" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ11" s="12">
         <v>544816491</v>
@@ -2730,40 +2724,40 @@
     </row>
     <row r="12" spans="1:52" ht="15.5">
       <c r="A12" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="12">
         <v>549247619</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I12" s="7">
         <v>117474</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>58</v>
@@ -2772,43 +2766,43 @@
         <v>62</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>66</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>69</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AB12" s="7">
         <v>117474</v>
@@ -2817,7 +2811,7 @@
         <v>58</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE12" s="12">
         <v>549247619</v>
@@ -2828,47 +2822,47 @@
       <c r="AG12" s="12">
         <v>549247619</v>
       </c>
-      <c r="AH12" s="2" t="s">
-        <v>72</v>
+      <c r="AH12" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK12" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AL12" s="12">
         <v>549247619</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AO12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ12" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS12" s="9">
         <v>666</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU12" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AV12" s="7">
         <v>117484</v>
@@ -2877,10 +2871,10 @@
         <v>117484</v>
       </c>
       <c r="AX12" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AY12" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ12" s="11">
         <v>544816491</v>
@@ -2915,7 +2909,7 @@
         <v>117474</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>59</v>
@@ -2972,7 +2966,7 @@
         <v>117474</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD13" s="8" t="s">
         <v>70</v>
@@ -2986,59 +2980,59 @@
       <c r="AG13" s="5">
         <v>544816495</v>
       </c>
-      <c r="AH13" s="9" t="s">
+      <c r="AH13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AI13" s="9" t="s">
+      <c r="AJ13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AJ13" s="9" t="s">
+      <c r="AK13" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK13" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL13" s="5">
         <v>544816495</v>
       </c>
       <c r="AM13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN13" s="9" t="s">
+      <c r="AO13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AO13" s="9" t="s">
+      <c r="AP13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AP13" s="9" t="s">
+      <c r="AQ13" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR13" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="AQ13" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR13" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="AS13" s="9">
         <v>888</v>
       </c>
       <c r="AT13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AU13" s="12" t="s">
+      <c r="AV13" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AW13" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AX13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AV13" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AW13" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AX13" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="AY13" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ13" s="12">
         <v>549247616</v>
@@ -3046,7 +3040,7 @@
     </row>
     <row r="14" spans="1:52" ht="15.5">
       <c r="A14" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>53</v>
@@ -3064,16 +3058,16 @@
         <v>56</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="I14" s="7">
         <v>117474</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>59</v>
@@ -3082,7 +3076,7 @@
         <v>60</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>62</v>
@@ -3112,7 +3106,7 @@
         <v>69</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X14" s="6" t="s">
         <v>68</v>
@@ -3121,16 +3115,16 @@
         <v>65</v>
       </c>
       <c r="Z14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AA14" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="AB14" s="7">
         <v>117474</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD14" s="9" t="s">
         <v>70</v>
@@ -3144,47 +3138,47 @@
       <c r="AG14" s="5">
         <v>544816496</v>
       </c>
-      <c r="AH14" s="9" t="s">
-        <v>72</v>
+      <c r="AH14" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK14" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK14" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL14" s="5">
         <v>544816496</v>
       </c>
       <c r="AM14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN14" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ14" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR14" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="AP14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ14" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR14" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="AS14" s="9">
         <v>999</v>
       </c>
       <c r="AT14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU14" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="AU14" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="AV14" s="7">
         <v>117475</v>
@@ -3193,10 +3187,10 @@
         <v>117475</v>
       </c>
       <c r="AX14" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY14" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ14" s="12">
         <v>523301800</v>
@@ -3204,7 +3198,7 @@
     </row>
     <row r="15" spans="1:52" ht="15.5">
       <c r="A15" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>53</v>
@@ -3222,16 +3216,16 @@
         <v>56</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="I15" s="7">
         <v>117474</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>59</v>
@@ -3270,7 +3264,7 @@
         <v>69</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X15" s="6" t="s">
         <v>68</v>
@@ -3279,10 +3273,10 @@
         <v>65</v>
       </c>
       <c r="Z15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA15" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="AA15" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="AB15" s="7">
         <v>117474</v>
@@ -3302,47 +3296,47 @@
       <c r="AG15" s="5">
         <v>544816497</v>
       </c>
-      <c r="AH15" s="9" t="s">
-        <v>72</v>
+      <c r="AH15" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK15" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK15" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL15" s="5">
         <v>544816497</v>
       </c>
       <c r="AM15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN15" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO15" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ15" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR15" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS15" s="9">
         <v>999</v>
       </c>
       <c r="AT15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU15" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="AU15" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="AV15" s="7">
         <v>117476</v>
@@ -3351,10 +3345,10 @@
         <v>117476</v>
       </c>
       <c r="AX15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY15" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ15" s="12">
         <v>523301800</v>
@@ -3362,10 +3356,10 @@
     </row>
     <row r="16" spans="1:52" ht="15.5">
       <c r="A16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="C16" s="5">
         <v>544816598</v>
@@ -3380,22 +3374,22 @@
         <v>56</v>
       </c>
       <c r="G16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="I16" s="7">
         <v>117474</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>61</v>
@@ -3428,7 +3422,7 @@
         <v>69</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X16" s="6" t="s">
         <v>68</v>
@@ -3437,16 +3431,16 @@
         <v>65</v>
       </c>
       <c r="Z16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA16" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AA16" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="AB16" s="7">
         <v>117474</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD16" s="9" t="s">
         <v>70</v>
@@ -3460,47 +3454,47 @@
       <c r="AG16" s="5">
         <v>544816498</v>
       </c>
-      <c r="AH16" s="9" t="s">
+      <c r="AH16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AI16" s="9" t="s">
+      <c r="AJ16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AJ16" s="9" t="s">
+      <c r="AK16" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK16" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL16" s="5">
         <v>544816498</v>
       </c>
       <c r="AM16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN16" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO16" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP16" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ16" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR16" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS16" s="9">
         <v>777</v>
       </c>
       <c r="AT16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU16" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="AU16" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="AV16" s="7">
         <v>117477</v>
@@ -3509,10 +3503,10 @@
         <v>117477</v>
       </c>
       <c r="AX16" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AY16" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ16" s="12">
         <v>523301800</v>
@@ -3520,7 +3514,7 @@
     </row>
     <row r="17" spans="1:52" ht="15.5">
       <c r="A17" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>53</v>
@@ -3538,19 +3532,19 @@
         <v>56</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="7">
+        <v>117474</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="7">
-        <v>117474</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>60</v>
@@ -3586,7 +3580,7 @@
         <v>69</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X17" s="6" t="s">
         <v>68</v>
@@ -3595,16 +3589,16 @@
         <v>65</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB17" s="7">
         <v>117474</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD17" s="9" t="s">
         <v>70</v>
@@ -3618,47 +3612,47 @@
       <c r="AG17" s="5">
         <v>544816499</v>
       </c>
-      <c r="AH17" s="9" t="s">
-        <v>72</v>
+      <c r="AH17" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI17" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK17" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK17" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL17" s="5">
         <v>544816499</v>
       </c>
       <c r="AM17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN17" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ17" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AP17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ17" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR17" s="9" t="s">
+      <c r="AS17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AS17" s="9" t="s">
+      <c r="AT17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AT17" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="AU17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV17" s="7">
         <v>117478</v>
@@ -3667,10 +3661,10 @@
         <v>117478</v>
       </c>
       <c r="AX17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY17" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ17" s="12">
         <v>523301800</v>
@@ -3678,10 +3672,10 @@
     </row>
     <row r="18" spans="1:52" ht="15.5">
       <c r="A18" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="5">
         <v>544887500</v>
@@ -3696,25 +3690,25 @@
         <v>56</v>
       </c>
       <c r="G18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="I18" s="7">
         <v>117474</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>60</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>62</v>
@@ -3744,7 +3738,7 @@
         <v>69</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X18" s="6" t="s">
         <v>68</v>
@@ -3753,10 +3747,10 @@
         <v>65</v>
       </c>
       <c r="Z18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA18" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="AA18" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="AB18" s="7">
         <v>117474</v>
@@ -3776,47 +3770,47 @@
       <c r="AG18" s="5">
         <v>544816500</v>
       </c>
-      <c r="AH18" s="9" t="s">
-        <v>116</v>
+      <c r="AH18" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI18" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK18" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK18" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL18" s="5">
         <v>544816500</v>
       </c>
       <c r="AM18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN18" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO18" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ18" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR18" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT18" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AT18" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="AU18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV18" s="7">
         <v>117479</v>
@@ -3825,10 +3819,10 @@
         <v>117479</v>
       </c>
       <c r="AX18" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AY18" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ18" s="12">
         <v>523301800</v>
@@ -3836,10 +3830,10 @@
     </row>
     <row r="19" spans="1:52" ht="15.5">
       <c r="A19" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="5">
         <v>544866501</v>
@@ -3854,22 +3848,22 @@
         <v>56</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="7">
+        <v>117474</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="7">
-        <v>117474</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>58</v>
@@ -3902,7 +3896,7 @@
         <v>69</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X19" s="6" t="s">
         <v>68</v>
@@ -3911,16 +3905,16 @@
         <v>65</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AB19" s="7">
         <v>117474</v>
       </c>
       <c r="AC19" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD19" s="9" t="s">
         <v>70</v>
@@ -3934,47 +3928,47 @@
       <c r="AG19" s="5">
         <v>544816501</v>
       </c>
-      <c r="AH19" s="9" t="s">
-        <v>116</v>
+      <c r="AH19" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI19" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AJ19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK19" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK19" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL19" s="5">
         <v>544816501</v>
       </c>
       <c r="AM19" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN19" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO19" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP19" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ19" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS19" s="9">
         <v>666</v>
       </c>
       <c r="AT19" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AU19" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV19" s="7">
         <v>117480</v>
@@ -3983,10 +3977,10 @@
         <v>117480</v>
       </c>
       <c r="AX19" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AY19" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ19" s="12">
         <v>523301800</v>
@@ -3994,10 +3988,10 @@
     </row>
     <row r="20" spans="1:52" ht="15.5">
       <c r="A20" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="5">
         <v>544814502</v>
@@ -4012,19 +4006,19 @@
         <v>56</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I20" s="7">
         <v>117474</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>60</v>
@@ -4069,16 +4063,16 @@
         <v>65</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB20" s="7">
         <v>117474</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD20" s="9" t="s">
         <v>70</v>
@@ -4092,47 +4086,47 @@
       <c r="AG20" s="5">
         <v>544816502</v>
       </c>
-      <c r="AH20" s="9" t="s">
-        <v>116</v>
+      <c r="AH20" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK20" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK20" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL20" s="5">
         <v>544816502</v>
       </c>
       <c r="AM20" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN20" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP20" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO20" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP20" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ20" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS20" s="9">
         <v>666</v>
       </c>
       <c r="AT20" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU20" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AV20" s="7">
         <v>117481</v>
@@ -4141,10 +4135,10 @@
         <v>117481</v>
       </c>
       <c r="AX20" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AY20" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ20" s="12">
         <v>523301800</v>
@@ -4152,7 +4146,7 @@
     </row>
     <row r="21" spans="1:52" ht="15.5">
       <c r="A21" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>53</v>
@@ -4161,28 +4155,28 @@
         <v>549237617</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="I21" s="7">
         <v>117474</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>60</v>
@@ -4194,43 +4188,43 @@
         <v>62</v>
       </c>
       <c r="O21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>66</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AB21" s="7">
         <v>117474</v>
@@ -4239,7 +4233,7 @@
         <v>58</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE21" s="12">
         <v>549247617</v>
@@ -4250,47 +4244,47 @@
       <c r="AG21" s="12">
         <v>549247617</v>
       </c>
-      <c r="AH21" s="9" t="s">
-        <v>116</v>
+      <c r="AH21" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK21" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL21" s="12">
         <v>549247617</v>
       </c>
       <c r="AM21" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP21" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP21" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ21" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR21" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS21" s="9">
         <v>666</v>
       </c>
       <c r="AT21" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU21" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AV21" s="7">
         <v>117482</v>
@@ -4299,10 +4293,10 @@
         <v>117482</v>
       </c>
       <c r="AX21" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AY21" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ21" s="12">
         <v>523301800</v>
@@ -4310,94 +4304,94 @@
     </row>
     <row r="22" spans="1:52" ht="15.5">
       <c r="A22" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" s="12">
         <v>549243618</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I22" s="7">
         <v>117474</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>62</v>
       </c>
       <c r="O22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>66</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V22" s="9" t="s">
         <v>69</v>
       </c>
       <c r="W22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AC22" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD22" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="X22" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA22" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AC22" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD22" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="AE22" s="12">
         <v>549247618</v>
@@ -4408,47 +4402,47 @@
       <c r="AG22" s="12">
         <v>549247618</v>
       </c>
-      <c r="AH22" s="9" t="s">
+      <c r="AH22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AI22" s="9" t="s">
+      <c r="AJ22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AJ22" s="9" t="s">
+      <c r="AK22" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK22" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL22" s="12">
         <v>549247618</v>
       </c>
       <c r="AM22" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP22" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO22" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP22" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ22" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR22" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS22" s="9">
         <v>666</v>
       </c>
       <c r="AT22" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU22" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AV22" s="7">
         <v>117483</v>
@@ -4457,10 +4451,10 @@
         <v>117483</v>
       </c>
       <c r="AX22" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AY22" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ22" s="12">
         <v>523301800</v>
@@ -4468,40 +4462,40 @@
     </row>
     <row r="23" spans="1:52" ht="15.5">
       <c r="A23" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C23" s="12">
         <v>545247619</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I23" s="7">
         <v>117474</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>59</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>58</v>
@@ -4510,52 +4504,52 @@
         <v>62</v>
       </c>
       <c r="O23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R23" s="9" t="s">
         <v>66</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V23" s="9" t="s">
         <v>69</v>
       </c>
       <c r="W23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AC23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD23" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z23" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA23" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AC23" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD23" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="AE23" s="12">
         <v>549247619</v>
@@ -4566,47 +4560,47 @@
       <c r="AG23" s="12">
         <v>549247619</v>
       </c>
-      <c r="AH23" s="9" t="s">
-        <v>72</v>
+      <c r="AH23" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI23" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK23" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK23" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL23" s="12">
         <v>549247619</v>
       </c>
       <c r="AM23" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO23" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO23" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP23" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ23" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR23" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS23" s="9">
         <v>666</v>
       </c>
       <c r="AT23" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU23" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AV23" s="7">
         <v>117484</v>
@@ -4615,10 +4609,10 @@
         <v>117484</v>
       </c>
       <c r="AX23" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AY23" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ23" s="12">
         <v>523301800</v>
@@ -4644,16 +4638,16 @@
         <v>56</v>
       </c>
       <c r="G24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="I24" s="7">
         <v>117474</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>59</v>
@@ -4662,7 +4656,7 @@
         <v>60</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>62</v>
@@ -4692,7 +4686,7 @@
         <v>69</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X24" s="6" t="s">
         <v>68</v>
@@ -4701,16 +4695,16 @@
         <v>65</v>
       </c>
       <c r="Z24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AA24" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="AB24" s="7">
         <v>117474</v>
       </c>
       <c r="AC24" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD24" s="9" t="s">
         <v>70</v>
@@ -4724,47 +4718,47 @@
       <c r="AG24" s="5">
         <v>544816496</v>
       </c>
-      <c r="AH24" s="9" t="s">
-        <v>72</v>
+      <c r="AH24" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI24" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK24" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK24" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL24" s="5">
         <v>544816496</v>
       </c>
       <c r="AM24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN24" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ24" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR24" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="AP24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ24" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR24" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="AS24" s="9">
         <v>999</v>
       </c>
       <c r="AT24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU24" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="AU24" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="AV24" s="7">
         <v>117475</v>
@@ -4773,10 +4767,10 @@
         <v>117475</v>
       </c>
       <c r="AX24" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY24" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ24" s="12">
         <v>523301800</v>
@@ -4784,7 +4778,7 @@
     </row>
     <row r="25" spans="1:52" ht="15.5">
       <c r="A25" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>53</v>
@@ -4802,16 +4796,16 @@
         <v>56</v>
       </c>
       <c r="G25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="I25" s="7">
         <v>117474</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>59</v>
@@ -4850,7 +4844,7 @@
         <v>69</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X25" s="6" t="s">
         <v>68</v>
@@ -4859,10 +4853,10 @@
         <v>65</v>
       </c>
       <c r="Z25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA25" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="AA25" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="AB25" s="7">
         <v>117474</v>
@@ -4882,47 +4876,47 @@
       <c r="AG25" s="5">
         <v>544816497</v>
       </c>
-      <c r="AH25" s="9" t="s">
-        <v>72</v>
+      <c r="AH25" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI25" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK25" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK25" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL25" s="5">
         <v>544816497</v>
       </c>
       <c r="AM25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN25" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN25" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO25" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AP25" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ25" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR25" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS25" s="9">
         <v>999</v>
       </c>
       <c r="AT25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU25" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="AU25" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="AV25" s="7">
         <v>117476</v>
@@ -4931,10 +4925,10 @@
         <v>117476</v>
       </c>
       <c r="AX25" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY25" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ25" s="12">
         <v>523301800</v>
@@ -4942,10 +4936,10 @@
     </row>
     <row r="26" spans="1:52" ht="15.5">
       <c r="A26" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="C26" s="5">
         <v>544316113</v>
@@ -4960,22 +4954,22 @@
         <v>56</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="I26" s="7">
         <v>117474</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>59</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>61</v>
@@ -5008,7 +5002,7 @@
         <v>69</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X26" s="6" t="s">
         <v>68</v>
@@ -5017,16 +5011,16 @@
         <v>65</v>
       </c>
       <c r="Z26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA26" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AA26" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="AB26" s="7">
         <v>117474</v>
       </c>
       <c r="AC26" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD26" s="9" t="s">
         <v>70</v>
@@ -5040,47 +5034,47 @@
       <c r="AG26" s="5">
         <v>544816498</v>
       </c>
-      <c r="AH26" s="9" t="s">
+      <c r="AH26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AI26" s="9" t="s">
+      <c r="AJ26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AJ26" s="9" t="s">
+      <c r="AK26" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK26" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL26" s="5">
         <v>544816498</v>
       </c>
       <c r="AM26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN26" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ26" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR26" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS26" s="9">
         <v>777</v>
       </c>
       <c r="AT26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU26" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="AU26" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="AV26" s="7">
         <v>117477</v>
@@ -5089,10 +5083,10 @@
         <v>117477</v>
       </c>
       <c r="AX26" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AY26" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ26" s="12">
         <v>523301800</v>
@@ -5100,7 +5094,7 @@
     </row>
     <row r="27" spans="1:52" ht="15.5">
       <c r="A27" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>53</v>
@@ -5118,19 +5112,19 @@
         <v>56</v>
       </c>
       <c r="G27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="7">
+        <v>117474</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="7">
-        <v>117474</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>60</v>
@@ -5166,7 +5160,7 @@
         <v>69</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X27" s="6" t="s">
         <v>68</v>
@@ -5175,16 +5169,16 @@
         <v>65</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB27" s="7">
         <v>117474</v>
       </c>
       <c r="AC27" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD27" s="9" t="s">
         <v>70</v>
@@ -5198,47 +5192,47 @@
       <c r="AG27" s="5">
         <v>544816499</v>
       </c>
-      <c r="AH27" s="9" t="s">
-        <v>72</v>
+      <c r="AH27" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI27" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK27" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK27" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL27" s="5">
         <v>544816499</v>
       </c>
       <c r="AM27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN27" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ27" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR27" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AP27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ27" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR27" s="9" t="s">
+      <c r="AS27" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AS27" s="9" t="s">
+      <c r="AT27" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AT27" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="AU27" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV27" s="7">
         <v>117478</v>
@@ -5247,10 +5241,10 @@
         <v>117478</v>
       </c>
       <c r="AX27" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY27" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ27" s="12">
         <v>523301800</v>
@@ -5258,10 +5252,10 @@
     </row>
     <row r="28" spans="1:52" ht="15.5">
       <c r="A28" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="5">
         <v>544316115</v>
@@ -5276,25 +5270,25 @@
         <v>56</v>
       </c>
       <c r="G28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="I28" s="7">
         <v>117474</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>60</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>62</v>
@@ -5324,7 +5318,7 @@
         <v>69</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X28" s="6" t="s">
         <v>68</v>
@@ -5333,10 +5327,10 @@
         <v>65</v>
       </c>
       <c r="Z28" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA28" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="AA28" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="AB28" s="7">
         <v>117474</v>
@@ -5356,47 +5350,47 @@
       <c r="AG28" s="5">
         <v>544816500</v>
       </c>
-      <c r="AH28" s="9" t="s">
-        <v>116</v>
+      <c r="AH28" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI28" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK28" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK28" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL28" s="5">
         <v>544816500</v>
       </c>
       <c r="AM28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN28" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN28" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO28" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP28" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ28" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR28" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT28" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AT28" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="AU28" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV28" s="7">
         <v>117479</v>
@@ -5405,10 +5399,10 @@
         <v>117479</v>
       </c>
       <c r="AX28" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AY28" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ28" s="12">
         <v>523301800</v>
@@ -5416,10 +5410,10 @@
     </row>
     <row r="29" spans="1:52" ht="15.5">
       <c r="A29" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="5">
         <v>544316116</v>
@@ -5434,22 +5428,22 @@
         <v>56</v>
       </c>
       <c r="G29" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="7">
+        <v>117474</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="7">
-        <v>117474</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>58</v>
@@ -5482,7 +5476,7 @@
         <v>69</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X29" s="6" t="s">
         <v>68</v>
@@ -5491,16 +5485,16 @@
         <v>65</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AB29" s="7">
         <v>117474</v>
       </c>
       <c r="AC29" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD29" s="9" t="s">
         <v>70</v>
@@ -5514,47 +5508,47 @@
       <c r="AG29" s="5">
         <v>544816501</v>
       </c>
-      <c r="AH29" s="9" t="s">
-        <v>116</v>
+      <c r="AH29" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI29" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AJ29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK29" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK29" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL29" s="5">
         <v>544816501</v>
       </c>
       <c r="AM29" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN29" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO29" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP29" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ29" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR29" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS29" s="9">
         <v>666</v>
       </c>
       <c r="AT29" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AU29" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV29" s="7">
         <v>117480</v>
@@ -5563,10 +5557,10 @@
         <v>117480</v>
       </c>
       <c r="AX29" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AY29" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ29" s="12">
         <v>523301800</v>
@@ -5574,10 +5568,10 @@
     </row>
     <row r="30" spans="1:52" ht="15.5">
       <c r="A30" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="5">
         <v>544316117</v>
@@ -5592,19 +5586,19 @@
         <v>56</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I30" s="7">
         <v>117474</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>60</v>
@@ -5649,16 +5643,16 @@
         <v>65</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB30" s="7">
         <v>117474</v>
       </c>
       <c r="AC30" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD30" s="9" t="s">
         <v>70</v>
@@ -5672,47 +5666,47 @@
       <c r="AG30" s="5">
         <v>544816502</v>
       </c>
-      <c r="AH30" s="9" t="s">
-        <v>116</v>
+      <c r="AH30" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI30" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK30" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK30" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL30" s="5">
         <v>544816502</v>
       </c>
       <c r="AM30" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO30" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP30" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO30" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP30" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ30" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR30" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS30" s="9">
         <v>666</v>
       </c>
       <c r="AT30" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU30" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AV30" s="7">
         <v>117481</v>
@@ -5721,10 +5715,10 @@
         <v>117481</v>
       </c>
       <c r="AX30" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AY30" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ30" s="12">
         <v>523301800</v>
@@ -5732,7 +5726,7 @@
     </row>
     <row r="31" spans="1:52" ht="15.5">
       <c r="A31" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>53</v>
@@ -5741,28 +5735,28 @@
         <v>544316118</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="I31" s="7">
         <v>117474</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>60</v>
@@ -5774,43 +5768,43 @@
         <v>62</v>
       </c>
       <c r="O31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R31" s="9" t="s">
         <v>66</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V31" s="9" t="s">
         <v>69</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AB31" s="7">
         <v>117474</v>
@@ -5819,7 +5813,7 @@
         <v>58</v>
       </c>
       <c r="AD31" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE31" s="12">
         <v>549247617</v>
@@ -5830,47 +5824,47 @@
       <c r="AG31" s="12">
         <v>549247617</v>
       </c>
-      <c r="AH31" s="9" t="s">
-        <v>116</v>
+      <c r="AH31" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI31" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK31" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK31" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL31" s="12">
         <v>549247617</v>
       </c>
       <c r="AM31" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP31" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP31" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ31" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR31" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS31" s="9">
         <v>666</v>
       </c>
       <c r="AT31" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU31" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AV31" s="7">
         <v>117482</v>
@@ -5879,10 +5873,10 @@
         <v>117482</v>
       </c>
       <c r="AX31" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AY31" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ31" s="12">
         <v>523301800</v>
@@ -5890,94 +5884,94 @@
     </row>
     <row r="32" spans="1:52" ht="15.5">
       <c r="A32" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C32" s="5">
         <v>544316119</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I32" s="7">
         <v>117474</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N32" s="9" t="s">
         <v>62</v>
       </c>
       <c r="O32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q32" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R32" s="9" t="s">
         <v>66</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V32" s="9" t="s">
         <v>69</v>
       </c>
       <c r="W32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z32" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AC32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD32" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="X32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z32" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA32" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB32" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AC32" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD32" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="AE32" s="12">
         <v>549247618</v>
@@ -5988,47 +5982,47 @@
       <c r="AG32" s="12">
         <v>549247618</v>
       </c>
-      <c r="AH32" s="9" t="s">
+      <c r="AH32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AI32" s="9" t="s">
+      <c r="AJ32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AJ32" s="9" t="s">
+      <c r="AK32" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK32" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL32" s="12">
         <v>549247618</v>
       </c>
       <c r="AM32" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN32" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO32" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP32" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ32" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR32" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS32" s="9">
         <v>666</v>
       </c>
       <c r="AT32" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU32" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AV32" s="7">
         <v>117483</v>
@@ -6037,10 +6031,10 @@
         <v>117483</v>
       </c>
       <c r="AX32" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AY32" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ32" s="12">
         <v>523301800</v>
@@ -6048,40 +6042,40 @@
     </row>
     <row r="33" spans="1:53" ht="15.5">
       <c r="A33" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C33" s="5">
         <v>544316120</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I33" s="7">
         <v>117474</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>59</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>58</v>
@@ -6090,52 +6084,52 @@
         <v>62</v>
       </c>
       <c r="O33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R33" s="9" t="s">
         <v>66</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V33" s="9" t="s">
         <v>69</v>
       </c>
       <c r="W33" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="X33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z33" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD33" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="X33" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y33" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z33" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA33" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB33" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AC33" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD33" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="AE33" s="12">
         <v>549247619</v>
@@ -6146,47 +6140,47 @@
       <c r="AG33" s="12">
         <v>549247619</v>
       </c>
-      <c r="AH33" s="9" t="s">
-        <v>72</v>
+      <c r="AH33" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI33" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK33" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK33" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL33" s="12">
         <v>549247619</v>
       </c>
       <c r="AM33" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO33" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP33" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO33" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP33" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ33" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR33" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS33" s="9">
         <v>666</v>
       </c>
       <c r="AT33" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU33" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AV33" s="7">
         <v>117484</v>
@@ -6195,10 +6189,10 @@
         <v>117484</v>
       </c>
       <c r="AX33" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AY33" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ33" s="12">
         <v>523301800</v>
@@ -6224,16 +6218,16 @@
         <v>56</v>
       </c>
       <c r="G34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="I34" s="7">
         <v>117474</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>59</v>
@@ -6242,7 +6236,7 @@
         <v>60</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N34" s="9" t="s">
         <v>62</v>
@@ -6272,7 +6266,7 @@
         <v>69</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X34" s="6" t="s">
         <v>68</v>
@@ -6281,16 +6275,16 @@
         <v>65</v>
       </c>
       <c r="Z34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA34" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AA34" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="AB34" s="7">
         <v>117474</v>
       </c>
       <c r="AC34" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD34" s="9" t="s">
         <v>70</v>
@@ -6304,47 +6298,47 @@
       <c r="AG34" s="5">
         <v>544816496</v>
       </c>
-      <c r="AH34" s="9" t="s">
-        <v>72</v>
+      <c r="AH34" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI34" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK34" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK34" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL34" s="5">
         <v>544816496</v>
       </c>
       <c r="AM34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN34" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ34" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR34" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="AP34" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ34" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR34" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="AS34" s="9">
         <v>999</v>
       </c>
       <c r="AT34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU34" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="AU34" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="AV34" s="7">
         <v>117475</v>
@@ -6353,10 +6347,10 @@
         <v>117475</v>
       </c>
       <c r="AX34" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY34" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ34" s="12">
         <v>523301800</v>
@@ -6364,7 +6358,7 @@
     </row>
     <row r="35" spans="1:53" ht="15.5">
       <c r="A35" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>53</v>
@@ -6382,16 +6376,16 @@
         <v>56</v>
       </c>
       <c r="G35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="I35" s="7">
         <v>117474</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>59</v>
@@ -6430,7 +6424,7 @@
         <v>69</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X35" s="6" t="s">
         <v>68</v>
@@ -6439,10 +6433,10 @@
         <v>65</v>
       </c>
       <c r="Z35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA35" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="AA35" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="AB35" s="7">
         <v>117474</v>
@@ -6462,47 +6456,47 @@
       <c r="AG35" s="5">
         <v>544816497</v>
       </c>
-      <c r="AH35" s="9" t="s">
-        <v>72</v>
+      <c r="AH35" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI35" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK35" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK35" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL35" s="5">
         <v>544816497</v>
       </c>
       <c r="AM35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN35" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN35" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP35" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ35" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="AP35" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ35" s="20" t="s">
-        <v>96</v>
-      </c>
       <c r="AR35" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS35" s="9">
         <v>999</v>
       </c>
       <c r="AT35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU35" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="AU35" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="AV35" s="7">
         <v>117476</v>
@@ -6511,10 +6505,10 @@
         <v>117476</v>
       </c>
       <c r="AX35" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AY35" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ35" s="12">
         <v>523301800</v>
@@ -6522,10 +6516,10 @@
     </row>
     <row r="36" spans="1:53" ht="15.5">
       <c r="A36" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="C36" s="5">
         <v>544316123</v>
@@ -6540,22 +6534,22 @@
         <v>56</v>
       </c>
       <c r="G36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="I36" s="7">
         <v>117474</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>59</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>61</v>
@@ -6588,7 +6582,7 @@
         <v>69</v>
       </c>
       <c r="W36" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X36" s="6" t="s">
         <v>68</v>
@@ -6597,16 +6591,16 @@
         <v>65</v>
       </c>
       <c r="Z36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AA36" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="AB36" s="7">
         <v>117474</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD36" s="9" t="s">
         <v>70</v>
@@ -6620,47 +6614,47 @@
       <c r="AG36" s="5">
         <v>544816498</v>
       </c>
-      <c r="AH36" s="9" t="s">
+      <c r="AH36" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AI36" s="9" t="s">
+      <c r="AJ36" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AJ36" s="9" t="s">
+      <c r="AK36" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK36" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL36" s="5">
         <v>544816498</v>
       </c>
       <c r="AM36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN36" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN36" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO36" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP36" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ36" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR36" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS36" s="9">
         <v>777</v>
       </c>
       <c r="AT36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU36" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="AU36" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="AV36" s="7">
         <v>117477</v>
@@ -6669,10 +6663,10 @@
         <v>117477</v>
       </c>
       <c r="AX36" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AY36" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ36" s="12">
         <v>523301800</v>
@@ -6680,7 +6674,7 @@
     </row>
     <row r="37" spans="1:53" ht="15.5">
       <c r="A37" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>53</v>
@@ -6698,19 +6692,19 @@
         <v>56</v>
       </c>
       <c r="G37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="7">
+        <v>117474</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" s="7">
-        <v>117474</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>60</v>
@@ -6746,7 +6740,7 @@
         <v>69</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X37" s="6" t="s">
         <v>68</v>
@@ -6755,16 +6749,16 @@
         <v>65</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB37" s="7">
         <v>117474</v>
       </c>
       <c r="AC37" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD37" s="9" t="s">
         <v>70</v>
@@ -6778,47 +6772,47 @@
       <c r="AG37" s="5">
         <v>544816499</v>
       </c>
-      <c r="AH37" s="9" t="s">
-        <v>72</v>
+      <c r="AH37" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK37" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK37" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL37" s="5">
         <v>544816499</v>
       </c>
       <c r="AM37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN37" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO37" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ37" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR37" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AP37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ37" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR37" s="9" t="s">
+      <c r="AS37" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AS37" s="9" t="s">
+      <c r="AT37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AT37" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="AU37" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV37" s="7">
         <v>117478</v>
@@ -6827,10 +6821,10 @@
         <v>117478</v>
       </c>
       <c r="AX37" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY37" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AZ37" s="12">
         <v>523301800</v>
@@ -6838,10 +6832,10 @@
     </row>
     <row r="38" spans="1:53" ht="15.5">
       <c r="A38" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="5">
         <v>544316125</v>
@@ -6856,25 +6850,25 @@
         <v>56</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="I38" s="7">
         <v>117474</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>60</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N38" s="9" t="s">
         <v>62</v>
@@ -6904,7 +6898,7 @@
         <v>69</v>
       </c>
       <c r="W38" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X38" s="6" t="s">
         <v>68</v>
@@ -6913,10 +6907,10 @@
         <v>65</v>
       </c>
       <c r="Z38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA38" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="AA38" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="AB38" s="7">
         <v>117474</v>
@@ -6936,47 +6930,47 @@
       <c r="AG38" s="5">
         <v>544816500</v>
       </c>
-      <c r="AH38" s="9" t="s">
-        <v>116</v>
+      <c r="AH38" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI38" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK38" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK38" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL38" s="5">
         <v>544816500</v>
       </c>
       <c r="AM38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AN38" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="AO38" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP38" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ38" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR38" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS38" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT38" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AT38" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="AU38" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV38" s="7">
         <v>117479</v>
@@ -6985,10 +6979,10 @@
         <v>117479</v>
       </c>
       <c r="AX38" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AY38" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ38" s="12">
         <v>523301800</v>
@@ -6996,10 +6990,10 @@
     </row>
     <row r="39" spans="1:53" ht="15.5">
       <c r="A39" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="5">
         <v>544316126</v>
@@ -7014,22 +7008,22 @@
         <v>56</v>
       </c>
       <c r="G39" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="7">
+        <v>117474</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L39" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I39" s="7">
-        <v>117474</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>58</v>
@@ -7062,7 +7056,7 @@
         <v>69</v>
       </c>
       <c r="W39" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X39" s="6" t="s">
         <v>68</v>
@@ -7071,16 +7065,16 @@
         <v>65</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AB39" s="7">
         <v>117474</v>
       </c>
       <c r="AC39" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AD39" s="9" t="s">
         <v>70</v>
@@ -7094,47 +7088,47 @@
       <c r="AG39" s="5">
         <v>544816501</v>
       </c>
-      <c r="AH39" s="9" t="s">
-        <v>116</v>
+      <c r="AH39" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI39" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AJ39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK39" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK39" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL39" s="5">
         <v>544816501</v>
       </c>
       <c r="AM39" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN39" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO39" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP39" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ39" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR39" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS39" s="9">
         <v>666</v>
       </c>
       <c r="AT39" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AU39" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV39" s="7">
         <v>117480</v>
@@ -7143,10 +7137,10 @@
         <v>117480</v>
       </c>
       <c r="AX39" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AY39" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ39" s="12">
         <v>523301800</v>
@@ -7154,10 +7148,10 @@
     </row>
     <row r="40" spans="1:53" ht="15.5">
       <c r="A40" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="5">
         <v>544316127</v>
@@ -7172,19 +7166,19 @@
         <v>56</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I40" s="7">
         <v>117474</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>60</v>
@@ -7229,16 +7223,16 @@
         <v>65</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AA40" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AB40" s="7">
         <v>117474</v>
       </c>
       <c r="AC40" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD40" s="9" t="s">
         <v>70</v>
@@ -7252,47 +7246,47 @@
       <c r="AG40" s="5">
         <v>544816502</v>
       </c>
-      <c r="AH40" s="9" t="s">
-        <v>116</v>
+      <c r="AH40" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="AI40" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK40" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK40" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL40" s="5">
         <v>544816502</v>
       </c>
       <c r="AM40" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN40" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO40" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP40" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO40" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP40" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ40" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR40" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS40" s="9">
         <v>666</v>
       </c>
       <c r="AT40" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU40" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AV40" s="7">
         <v>117481</v>
@@ -7301,10 +7295,10 @@
         <v>117481</v>
       </c>
       <c r="AX40" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AY40" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AZ40" s="12">
         <v>523301800</v>
@@ -7312,7 +7306,7 @@
     </row>
     <row r="41" spans="1:53" ht="15.5">
       <c r="A41" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>53</v>
@@ -7321,28 +7315,28 @@
         <v>544316128</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="I41" s="7">
         <v>117474</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>60</v>
@@ -7354,43 +7348,43 @@
         <v>62</v>
       </c>
       <c r="O41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q41" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R41" s="9" t="s">
         <v>66</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U41" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V41" s="9" t="s">
         <v>69</v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X41" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Y41" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AB41" s="7">
         <v>117474</v>
@@ -7399,7 +7393,7 @@
         <v>58</v>
       </c>
       <c r="AD41" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AE41" s="12">
         <v>549247617</v>
@@ -7410,47 +7404,47 @@
       <c r="AG41" s="12">
         <v>549247617</v>
       </c>
-      <c r="AH41" s="9" t="s">
-        <v>116</v>
+      <c r="AH41" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI41" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK41" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK41" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL41" s="12">
         <v>549247617</v>
       </c>
       <c r="AM41" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO41" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP41" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO41" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP41" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ41" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR41" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS41" s="9">
         <v>666</v>
       </c>
       <c r="AT41" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AU41" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AV41" s="7">
         <v>117482</v>
@@ -7459,10 +7453,10 @@
         <v>117482</v>
       </c>
       <c r="AX41" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AY41" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ41" s="12">
         <v>523301800</v>
@@ -7470,94 +7464,94 @@
     </row>
     <row r="42" spans="1:53" ht="15.5">
       <c r="A42" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" s="5">
         <v>544316129</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I42" s="7">
         <v>117474</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N42" s="9" t="s">
         <v>62</v>
       </c>
       <c r="O42" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q42" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R42" s="9" t="s">
         <v>66</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U42" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V42" s="9" t="s">
         <v>69</v>
       </c>
       <c r="W42" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y42" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z42" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA42" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AC42" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD42" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="X42" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z42" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA42" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB42" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AC42" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD42" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="AE42" s="12">
         <v>549247618</v>
@@ -7568,47 +7562,47 @@
       <c r="AG42" s="12">
         <v>549247618</v>
       </c>
-      <c r="AH42" s="9" t="s">
+      <c r="AH42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AI42" s="9" t="s">
+      <c r="AJ42" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AJ42" s="9" t="s">
+      <c r="AK42" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK42" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL42" s="12">
         <v>549247618</v>
       </c>
       <c r="AM42" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP42" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO42" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP42" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ42" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AR42" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS42" s="9">
         <v>666</v>
       </c>
       <c r="AT42" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU42" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AV42" s="7">
         <v>117483</v>
@@ -7617,10 +7611,10 @@
         <v>117483</v>
       </c>
       <c r="AX42" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AY42" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ42" s="12">
         <v>523301800</v>
@@ -7628,40 +7622,40 @@
     </row>
     <row r="43" spans="1:53" ht="15.5">
       <c r="A43" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C43" s="5">
         <v>544316130</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I43" s="7">
         <v>117474</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>59</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>58</v>
@@ -7670,52 +7664,52 @@
         <v>62</v>
       </c>
       <c r="O43" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q43" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="R43" s="9" t="s">
         <v>66</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V43" s="9" t="s">
         <v>69</v>
       </c>
       <c r="W43" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="X43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z43" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA43" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>117474</v>
+      </c>
+      <c r="AC43" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD43" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="X43" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y43" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z43" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA43" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB43" s="7">
-        <v>117474</v>
-      </c>
-      <c r="AC43" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD43" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="AE43" s="12">
         <v>549247619</v>
@@ -7726,47 +7720,47 @@
       <c r="AG43" s="12">
         <v>549247619</v>
       </c>
-      <c r="AH43" s="9" t="s">
-        <v>72</v>
+      <c r="AH43" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="AI43" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK43" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="AK43" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="AL43" s="12">
         <v>549247619</v>
       </c>
       <c r="AM43" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO43" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP43" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO43" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP43" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ43" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AR43" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS43" s="9">
         <v>666</v>
       </c>
       <c r="AT43" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU43" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AV43" s="7">
         <v>117484</v>
@@ -7775,10 +7769,10 @@
         <v>117484</v>
       </c>
       <c r="AX43" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AY43" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ43" s="12">
         <v>523301800</v>
@@ -8009,9 +8003,6 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI2:AI43" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"אדוק,מחובר,מחובר חלקית,בשלבי ניתוק,מנותק"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AH2:AH43" xr:uid="{00000000-0002-0000-0000-000009000000}">
-      <formula1>"משלם,לא משלם"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AO2:AO43" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"הטכניון,האוניברסיטה העברית בירושלים,אוניברסיטת בר אילן,אוניברסיטת חיפה,אוניברסיטת תל-אביב,אוניברסיטת בן-גוריון בנגב,אוניברסיטת אריאל בשומרון,הקריה האקדמית אונו,מכללת אורנים,המכללה האקדמית אחוה,אפקה המכללה האקדמית להנדסה,מכללת אפרתה,המכללה האקדמית אשקלון,ה"&amp;"מכללה האקדמית בית ברל,המכללה האקדמית להנדסה אורט בראודה,בצלאל,מכללת גבעת וושינגטון,מכללת גורדון,המכללה האקדמית גליל מערבי,המכללה האקדמית הדסה,המכללה האקדמית בוינגייט,המרכז האקדמי ויצו חיפה,מכון טכנולוגי חולון HIT,מכללת חמדת הדרום,המכללה האקדמית כנרת,מכללת"&amp;" לוינסקי,המכללה למינהל,המרכז האקדמי למשפט ולעסקים,המכללה האקדמית נתניה,מכללת סכנין,מכללת סמינר הקיבוצים,המכללה האקדמית להנדסה ע""ש סמי שמעון,המכללה האקדמית ספיר,עזריאלי מכללה אקדמית להנדסה ,המכללה האקדמית עמק יזרעאל,המכללה האקדמית הערבית לחינוך,המרכז האקד"&amp;"מי פרס,המכללה האקדמית צפת,המכללה האקדמית קיי,המרכז האקדמי רופין,האקדמית רמת גן,מכללת רמת גן,מכללת שאנן,מכון שכטר,מכללת שנקר,המרכז האקדמי שערי מדע ומשפט,האקדמית תל אביב יפו ,המכללה האקדמית תל חי,תל חי קמפוס חדשנות בחינוך ובהוראה,מכללת תלפיות"</formula1>
     </dataValidation>
@@ -8020,6 +8011,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ1:AQ1048576" xr:uid="{9CC42E77-F5FB-4633-8EB4-4C88FB11F848}">
       <formula1>"עורפי,סיירות,גדודים"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AH1:AH1048576" xr:uid="{7AAB7BC8-C5FB-4039-ADA2-9D260654899B}">
+      <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
